--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H2">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I2">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J2">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>29.175628315762</v>
+        <v>180.135230228774</v>
       </c>
       <c r="R2">
-        <v>116.702513263048</v>
+        <v>720.540920915096</v>
       </c>
       <c r="S2">
-        <v>0.01526966340449396</v>
+        <v>0.07828037658114875</v>
       </c>
       <c r="T2">
-        <v>0.01026798558432416</v>
+        <v>0.0592119240343244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H3">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I3">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J3">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>162.4172905921263</v>
+        <v>642.4803938460653</v>
       </c>
       <c r="R3">
-        <v>974.503743552758</v>
+        <v>3854.882363076392</v>
       </c>
       <c r="S3">
-        <v>0.08500441983872589</v>
+        <v>0.2791991722685299</v>
       </c>
       <c r="T3">
-        <v>0.08574100172217929</v>
+        <v>0.3167828433031251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H4">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I4">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J4">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.9633353420753333</v>
+        <v>42.29349827029466</v>
       </c>
       <c r="R4">
-        <v>5.780012052452</v>
+        <v>253.760989621768</v>
       </c>
       <c r="S4">
-        <v>0.0005041813070807624</v>
+        <v>0.01837925300524576</v>
       </c>
       <c r="T4">
-        <v>0.0005085501483419123</v>
+        <v>0.02085332838734032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H5">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I5">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J5">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>175.7466589497</v>
+        <v>668.3501339183921</v>
       </c>
       <c r="R5">
-        <v>702.9866357988</v>
+        <v>2673.400535673568</v>
       </c>
       <c r="S5">
-        <v>0.09198061812353553</v>
+        <v>0.2904412429747781</v>
       </c>
       <c r="T5">
-        <v>0.06185176686027861</v>
+        <v>0.2196921574288745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H6">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I6">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J6">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>31.62099650589233</v>
+        <v>371.9246633993494</v>
       </c>
       <c r="R6">
-        <v>189.725979035354</v>
+        <v>2231.547980396096</v>
       </c>
       <c r="S6">
-        <v>0.01654949699571002</v>
+        <v>0.1616252560575875</v>
       </c>
       <c r="T6">
-        <v>0.01669290200559579</v>
+        <v>0.183382019894653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H7">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I7">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J7">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>7.197093826825332</v>
+        <v>28.68583426053067</v>
       </c>
       <c r="R7">
-        <v>43.182562960952</v>
+        <v>172.115005563184</v>
       </c>
       <c r="S7">
-        <v>0.003766746650210535</v>
+        <v>0.01246584527416929</v>
       </c>
       <c r="T7">
-        <v>0.003799386333504272</v>
+        <v>0.01414390264140938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J8">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>8.863166946242666</v>
+        <v>13.83374459733133</v>
       </c>
       <c r="R8">
-        <v>53.179001677456</v>
+        <v>83.00246758398798</v>
       </c>
       <c r="S8">
-        <v>0.004638720184608556</v>
+        <v>0.006011654328979503</v>
       </c>
       <c r="T8">
-        <v>0.004678915709228038</v>
+        <v>0.006820897554302391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J9">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
         <v>49.34020772045289</v>
       </c>
       <c r="R9">
-        <v>444.0618694840761</v>
+        <v>444.061869484076</v>
       </c>
       <c r="S9">
-        <v>0.02582320956536536</v>
+        <v>0.02144150278678911</v>
       </c>
       <c r="T9">
-        <v>0.03907045998343776</v>
+        <v>0.03649169244827592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,43 +1042,43 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J10">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.2926484348382222</v>
+        <v>3.247990148600444</v>
       </c>
       <c r="R10">
-        <v>2.633835913544</v>
+        <v>29.231911337404</v>
       </c>
       <c r="S10">
-        <v>0.0001531635599229742</v>
+        <v>0.001411461220780624</v>
       </c>
       <c r="T10">
-        <v>0.0002317361334865799</v>
+        <v>0.002402192107687979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J11">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>53.38949213559999</v>
+        <v>51.32691169005067</v>
       </c>
       <c r="R11">
-        <v>320.3369528136</v>
+        <v>307.961470140304</v>
       </c>
       <c r="S11">
-        <v>0.0279424856055991</v>
+        <v>0.02230485380756314</v>
       </c>
       <c r="T11">
-        <v>0.02818461335277732</v>
+        <v>0.02530736374040752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J12">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>9.606037203554221</v>
+        <v>28.56249050438756</v>
       </c>
       <c r="R12">
-        <v>86.45433483198799</v>
+        <v>257.062414539488</v>
       </c>
       <c r="S12">
-        <v>0.0050275165683433</v>
+        <v>0.01241224445623072</v>
       </c>
       <c r="T12">
-        <v>0.007606621647952692</v>
+        <v>0.02112462973298048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J13">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>2.186381161171556</v>
+        <v>2.202969981039111</v>
       </c>
       <c r="R13">
-        <v>19.677430450544</v>
+        <v>19.826729829352</v>
       </c>
       <c r="S13">
-        <v>0.00114428741837858</v>
+        <v>0.0009573325522924913</v>
       </c>
       <c r="T13">
-        <v>0.001731304378572473</v>
+        <v>0.001629302079073728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H14">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I14">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J14">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>55.36690129526099</v>
+        <v>20.3487209489115</v>
       </c>
       <c r="R14">
-        <v>221.467605181044</v>
+        <v>81.394883795646</v>
       </c>
       <c r="S14">
-        <v>0.0289774032414491</v>
+        <v>0.008842831781448266</v>
       </c>
       <c r="T14">
-        <v>0.01948566585081239</v>
+        <v>0.006688791068201328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H15">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I15">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J15">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>308.2210261089664</v>
+        <v>72.576887002707</v>
       </c>
       <c r="R15">
-        <v>1849.326156653799</v>
+        <v>435.461322016242</v>
       </c>
       <c r="S15">
-        <v>0.1613137949227655</v>
+        <v>0.03153933874258803</v>
       </c>
       <c r="T15">
-        <v>0.1627116142257695</v>
+        <v>0.03578492486778622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H16">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I16">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J16">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>1.828131761951</v>
+        <v>4.777625082903</v>
       </c>
       <c r="R16">
-        <v>10.968790571706</v>
+        <v>28.665750497418</v>
       </c>
       <c r="S16">
-        <v>0.0009567902484202993</v>
+        <v>0.002076186263942992</v>
       </c>
       <c r="T16">
-        <v>0.0009650810451175575</v>
+        <v>0.002355666682586675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H17">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I17">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J17">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>333.5163107278499</v>
+        <v>75.49922552074202</v>
       </c>
       <c r="R17">
-        <v>1334.0652429114</v>
+        <v>301.9969020829681</v>
       </c>
       <c r="S17">
-        <v>0.1745526008765195</v>
+        <v>0.03280928332477135</v>
       </c>
       <c r="T17">
-        <v>0.1173767582184494</v>
+        <v>0.02481721315984091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H18">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I18">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J18">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>60.00750261318949</v>
+        <v>42.013942413816</v>
       </c>
       <c r="R18">
-        <v>360.0450156791369</v>
+        <v>252.083654482896</v>
       </c>
       <c r="S18">
-        <v>0.03140615710931138</v>
+        <v>0.01825776795374959</v>
       </c>
       <c r="T18">
-        <v>0.03167829832737391</v>
+        <v>0.02071548994133388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H19">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I19">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J19">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>13.658001781826</v>
+        <v>3.240454606314</v>
       </c>
       <c r="R19">
-        <v>81.94801069095598</v>
+        <v>19.442727637884</v>
       </c>
       <c r="S19">
-        <v>0.007148195326912354</v>
+        <v>0.001408186541601116</v>
       </c>
       <c r="T19">
-        <v>0.00721013600231699</v>
+        <v>0.0015977459135178</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H20">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I20">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J20">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N20">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O20">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P20">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q20">
-        <v>43.520789512154</v>
+        <v>0.02919620683383333</v>
       </c>
       <c r="R20">
-        <v>261.124737072924</v>
+        <v>0.175177241003</v>
       </c>
       <c r="S20">
-        <v>0.02277749770308814</v>
+        <v>1.268763507721938E-05</v>
       </c>
       <c r="T20">
-        <v>0.02297486970080693</v>
+        <v>1.439554810244346E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H21">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I21">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J21">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>72.555193</v>
       </c>
       <c r="O21">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P21">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q21">
-        <v>242.2751153974476</v>
+        <v>0.1041328253312222</v>
       </c>
       <c r="R21">
-        <v>2180.476038577029</v>
+        <v>0.937195427981</v>
       </c>
       <c r="S21">
-        <v>0.1267996501520189</v>
+        <v>4.525242936117763E-05</v>
       </c>
       <c r="T21">
-        <v>0.1918475952665052</v>
+        <v>7.701595131675539E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H22">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I22">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J22">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N22">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O22">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P22">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q22">
-        <v>1.436990977480667</v>
+        <v>0.006854904072111111</v>
       </c>
       <c r="R22">
-        <v>12.932918797326</v>
+        <v>0.061694136649</v>
       </c>
       <c r="S22">
-        <v>0.0007520786974644268</v>
+        <v>2.97889797298959E-06</v>
       </c>
       <c r="T22">
-        <v>0.001137893435721112</v>
+        <v>5.069841873775088E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H23">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I23">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J23">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N23">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O23">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P23">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q23">
-        <v>262.1583079149</v>
+        <v>0.1083257768206667</v>
       </c>
       <c r="R23">
-        <v>1572.9498474894</v>
+        <v>0.649954660924</v>
       </c>
       <c r="S23">
-        <v>0.1372059267148522</v>
+        <v>4.707453723626319E-05</v>
       </c>
       <c r="T23">
-        <v>0.138394846068838</v>
+        <v>5.341135373617706E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H24">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I24">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J24">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N24">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O24">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P24">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q24">
-        <v>47.16850373206966</v>
+        <v>0.06028131968088889</v>
       </c>
       <c r="R24">
-        <v>424.5165335886269</v>
+        <v>0.542531877128</v>
       </c>
       <c r="S24">
-        <v>0.02468660374636081</v>
+        <v>2.619612165502332E-05</v>
       </c>
       <c r="T24">
-        <v>0.03735077784803347</v>
+        <v>4.458366674567799E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H25">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I25">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J25">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N25">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O25">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P25">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q25">
-        <v>10.73578269323067</v>
+        <v>0.004649382295777778</v>
       </c>
       <c r="R25">
-        <v>96.62204423907599</v>
+        <v>0.041844440662</v>
       </c>
       <c r="S25">
-        <v>0.005618792038862808</v>
+        <v>2.020456501046367E-06</v>
       </c>
       <c r="T25">
-        <v>0.008501220150576663</v>
+        <v>3.438652503719626E-06</v>
       </c>
     </row>
   </sheetData>
